--- a/Code/Results/Cases/Case_8_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.11318661076435</v>
+        <v>14.02644644336558</v>
       </c>
       <c r="C2">
-        <v>7.572848363129467</v>
+        <v>8.398079120269914</v>
       </c>
       <c r="D2">
-        <v>2.2227956215517</v>
+        <v>2.679354292459229</v>
       </c>
       <c r="E2">
-        <v>4.993344879358832</v>
+        <v>5.697941133438133</v>
       </c>
       <c r="F2">
-        <v>35.60842674745786</v>
+        <v>32.15525935106287</v>
       </c>
       <c r="G2">
-        <v>2.160386338794867</v>
+        <v>11.07903792319457</v>
       </c>
       <c r="H2">
-        <v>4.698306897163515</v>
+        <v>3.978427844080903</v>
       </c>
       <c r="I2">
-        <v>5.118468885387998</v>
+        <v>4.361718313354364</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.75981944567402</v>
+        <v>21.98681370500542</v>
       </c>
       <c r="L2">
-        <v>5.379298757276822</v>
+        <v>16.86166029692718</v>
       </c>
       <c r="M2">
-        <v>13.05152578272899</v>
+        <v>15.75807591537773</v>
       </c>
       <c r="N2">
-        <v>6.384447728861939</v>
+        <v>5.52662781690948</v>
       </c>
       <c r="O2">
-        <v>11.05304959424925</v>
+        <v>12.40678797378531</v>
       </c>
       <c r="P2">
-        <v>16.85386730198623</v>
+        <v>6.800765681245982</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.70374143570104</v>
+      </c>
+      <c r="R2">
+        <v>15.62445465041391</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.29107865325678</v>
+        <v>13.23007438751258</v>
       </c>
       <c r="C3">
-        <v>7.122455757075301</v>
+        <v>7.796402493816752</v>
       </c>
       <c r="D3">
-        <v>2.209667962736935</v>
+        <v>2.616311097113616</v>
       </c>
       <c r="E3">
-        <v>4.868122779416813</v>
+        <v>5.6161797735639</v>
       </c>
       <c r="F3">
-        <v>34.91480003646561</v>
+        <v>31.53039798830466</v>
       </c>
       <c r="G3">
-        <v>2.165561572052727</v>
+        <v>11.71809183877217</v>
       </c>
       <c r="H3">
-        <v>4.947742833978097</v>
+        <v>4.185270200216815</v>
       </c>
       <c r="I3">
-        <v>5.325969029787014</v>
+        <v>4.523785783913135</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.46593300150737</v>
+        <v>21.76273681217754</v>
       </c>
       <c r="L3">
-        <v>5.3131466461646</v>
+        <v>16.80151813780205</v>
       </c>
       <c r="M3">
-        <v>12.42078268083933</v>
+        <v>15.51253195998113</v>
       </c>
       <c r="N3">
-        <v>6.243937249760815</v>
+        <v>5.477997494279379</v>
       </c>
       <c r="O3">
-        <v>10.69728116199447</v>
+        <v>11.74404014804451</v>
       </c>
       <c r="P3">
-        <v>16.92297684893876</v>
+        <v>6.657095876694902</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.3447553515141</v>
+      </c>
+      <c r="R3">
+        <v>15.71014666827722</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.76206229065552</v>
+        <v>12.71371487531793</v>
       </c>
       <c r="C4">
-        <v>6.839743154597746</v>
+        <v>7.407949283662608</v>
       </c>
       <c r="D4">
-        <v>2.202143804994478</v>
+        <v>2.578669521835998</v>
       </c>
       <c r="E4">
-        <v>4.789049002353004</v>
+        <v>5.56480773255407</v>
       </c>
       <c r="F4">
-        <v>34.48677915154573</v>
+        <v>31.14084655048242</v>
       </c>
       <c r="G4">
-        <v>2.168846355534249</v>
+        <v>12.12416353014238</v>
       </c>
       <c r="H4">
-        <v>5.106296754125792</v>
+        <v>4.316933803568134</v>
       </c>
       <c r="I4">
-        <v>5.458390498628233</v>
+        <v>4.627680429308184</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>24.28504004052821</v>
+        <v>21.62263262807096</v>
       </c>
       <c r="L4">
-        <v>5.271004045483876</v>
+        <v>16.7584665793748</v>
       </c>
       <c r="M4">
-        <v>12.0197831066667</v>
+        <v>15.37393456585744</v>
       </c>
       <c r="N4">
-        <v>6.156759060402698</v>
+        <v>5.446953437853574</v>
       </c>
       <c r="O4">
-        <v>10.47392703736949</v>
+        <v>11.31822611360915</v>
       </c>
       <c r="P4">
-        <v>16.96581130302651</v>
+        <v>6.568318358888875</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.11831688297649</v>
+      </c>
+      <c r="R4">
+        <v>15.76265637110575</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.53458174254546</v>
+        <v>12.49062006989655</v>
       </c>
       <c r="C5">
-        <v>6.728534011435118</v>
+        <v>7.249901582276644</v>
       </c>
       <c r="D5">
-        <v>2.200368561213286</v>
+        <v>2.565501981169197</v>
       </c>
       <c r="E5">
-        <v>4.756056639306371</v>
+        <v>5.543446325814319</v>
       </c>
       <c r="F5">
-        <v>34.29908307764864</v>
+        <v>30.9682278920632</v>
       </c>
       <c r="G5">
-        <v>2.170222766400502</v>
+        <v>12.29443295057763</v>
       </c>
       <c r="H5">
-        <v>5.172785337889841</v>
+        <v>4.372191439464975</v>
       </c>
       <c r="I5">
-        <v>5.51591972433539</v>
+        <v>4.673816259887923</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>24.20169681112363</v>
+        <v>21.55588505341984</v>
       </c>
       <c r="L5">
-        <v>5.25300554515051</v>
+        <v>16.73137208333553</v>
       </c>
       <c r="M5">
-        <v>11.85094063980487</v>
+        <v>15.31494948217652</v>
       </c>
       <c r="N5">
-        <v>6.122027336097502</v>
+        <v>5.433658380181937</v>
       </c>
       <c r="O5">
-        <v>10.38058139290516</v>
+        <v>11.13790275273852</v>
       </c>
       <c r="P5">
-        <v>16.98015560766829</v>
+        <v>6.532971559990812</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.02346143891591</v>
+      </c>
+      <c r="R5">
+        <v>15.78128127102174</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.48913214290465</v>
+        <v>12.44596607461777</v>
       </c>
       <c r="C6">
-        <v>6.716610842769706</v>
+        <v>7.229549603779025</v>
       </c>
       <c r="D6">
-        <v>2.20151219906507</v>
+        <v>2.565637905481827</v>
       </c>
       <c r="E6">
-        <v>4.750284093562164</v>
+        <v>5.539722919091419</v>
       </c>
       <c r="F6">
-        <v>34.25212887030417</v>
+        <v>30.92417186974212</v>
       </c>
       <c r="G6">
-        <v>2.170465662936169</v>
+        <v>12.32450095984908</v>
       </c>
       <c r="H6">
-        <v>5.184515052787802</v>
+        <v>4.381946149255895</v>
       </c>
       <c r="I6">
-        <v>5.528445132394105</v>
+        <v>4.684969294351379</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>24.17617094509789</v>
+        <v>21.53371108168264</v>
       </c>
       <c r="L6">
-        <v>5.249461450369744</v>
+        <v>16.71701104052633</v>
       </c>
       <c r="M6">
-        <v>11.82005082077437</v>
+        <v>15.29837404707879</v>
       </c>
       <c r="N6">
-        <v>6.117467774583689</v>
+        <v>5.431015047495676</v>
       </c>
       <c r="O6">
-        <v>10.36354521258883</v>
+        <v>11.1049997926012</v>
       </c>
       <c r="P6">
-        <v>16.97861980466171</v>
+        <v>6.528248706574895</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.00618955933533</v>
+      </c>
+      <c r="R6">
+        <v>15.78101546613894</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.73938432973334</v>
+        <v>12.67413077529156</v>
       </c>
       <c r="C7">
-        <v>6.855943011754786</v>
+        <v>7.37704857125701</v>
       </c>
       <c r="D7">
-        <v>2.206051609968909</v>
+        <v>2.601917789568037</v>
       </c>
       <c r="E7">
-        <v>4.787904348076781</v>
+        <v>5.568182809178289</v>
       </c>
       <c r="F7">
-        <v>34.44150019042191</v>
+        <v>31.02050235265255</v>
       </c>
       <c r="G7">
-        <v>2.168898964955217</v>
+        <v>12.17581914100764</v>
       </c>
       <c r="H7">
-        <v>5.108819288911329</v>
+        <v>4.321345918283289</v>
       </c>
       <c r="I7">
-        <v>5.466843833764669</v>
+        <v>4.639542899542762</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>24.25216651453989</v>
+        <v>21.54727633168203</v>
       </c>
       <c r="L7">
-        <v>5.269328733405335</v>
+        <v>16.69329514855773</v>
       </c>
       <c r="M7">
-        <v>12.01035639309329</v>
+        <v>15.32507111239794</v>
       </c>
       <c r="N7">
-        <v>6.159598976576735</v>
+        <v>5.444689989328253</v>
       </c>
       <c r="O7">
-        <v>10.46869322579719</v>
+        <v>11.28278454070729</v>
       </c>
       <c r="P7">
-        <v>16.95534466686116</v>
+        <v>6.56899811261532</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.10601912335713</v>
+      </c>
+      <c r="R7">
+        <v>15.73890799635783</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.81048913215882</v>
+        <v>13.68017850693781</v>
       </c>
       <c r="C8">
-        <v>7.440599441901466</v>
+        <v>8.076484637829108</v>
       </c>
       <c r="D8">
-        <v>2.223478769799844</v>
+        <v>2.721761460716633</v>
       </c>
       <c r="E8">
-        <v>4.949729664077871</v>
+        <v>5.682917309036563</v>
       </c>
       <c r="F8">
-        <v>35.31475223643294</v>
+        <v>31.64187875204978</v>
       </c>
       <c r="G8">
-        <v>2.162192089168331</v>
+        <v>11.49247879907098</v>
       </c>
       <c r="H8">
-        <v>4.785271562731774</v>
+        <v>4.057817393232995</v>
       </c>
       <c r="I8">
-        <v>5.198705573688977</v>
+        <v>4.435087209851046</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.61737832240915</v>
+        <v>21.72773616864076</v>
       </c>
       <c r="L8">
-        <v>5.354983130987672</v>
+        <v>16.68987513386655</v>
       </c>
       <c r="M8">
-        <v>12.82801777238249</v>
+        <v>15.5463455929987</v>
       </c>
       <c r="N8">
-        <v>6.340482720955984</v>
+        <v>5.505656740370957</v>
       </c>
       <c r="O8">
-        <v>10.92638185064033</v>
+        <v>12.09294732254525</v>
       </c>
       <c r="P8">
-        <v>16.86376338873268</v>
+        <v>6.749075561129252</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.55355159483672</v>
+      </c>
+      <c r="R8">
+        <v>15.59487452913667</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.74446585119783</v>
+        <v>15.52729724909069</v>
       </c>
       <c r="C9">
-        <v>8.628100599079266</v>
+        <v>9.437864560996754</v>
       </c>
       <c r="D9">
-        <v>2.255000237415432</v>
+        <v>2.888888788314631</v>
       </c>
       <c r="E9">
-        <v>5.251224152982377</v>
+        <v>5.884080448829418</v>
       </c>
       <c r="F9">
-        <v>37.07753710464017</v>
+        <v>33.16035960964307</v>
       </c>
       <c r="G9">
-        <v>2.149808947198055</v>
+        <v>10.01608779494219</v>
       </c>
       <c r="H9">
-        <v>4.189807961872882</v>
+        <v>3.566739780684288</v>
       </c>
       <c r="I9">
-        <v>4.699211376208305</v>
+        <v>4.045777799254249</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>25.38373738060162</v>
+        <v>22.27471687240088</v>
       </c>
       <c r="L9">
-        <v>5.513563104930086</v>
+        <v>16.81853976533516</v>
       </c>
       <c r="M9">
-        <v>14.3274435314649</v>
+        <v>16.21231795349642</v>
       </c>
       <c r="N9">
-        <v>6.681185735964323</v>
+        <v>5.621328455356359</v>
       </c>
       <c r="O9">
-        <v>11.78737115756681</v>
+        <v>13.63373893526428</v>
       </c>
       <c r="P9">
-        <v>16.7059134504117</v>
+        <v>7.098156868938473</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.41199195297492</v>
+      </c>
+      <c r="R9">
+        <v>15.38039226196118</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.97900844126007</v>
+        <v>16.61797111607662</v>
       </c>
       <c r="C10">
-        <v>9.46552612854166</v>
+        <v>10.14477519610284</v>
       </c>
       <c r="D10">
-        <v>2.272654368961865</v>
+        <v>3.099351132105936</v>
       </c>
       <c r="E10">
-        <v>5.424675738316368</v>
+        <v>6.013892861021973</v>
       </c>
       <c r="F10">
-        <v>38.12230175278814</v>
+        <v>33.64027204337713</v>
       </c>
       <c r="G10">
-        <v>2.141369365294656</v>
+        <v>9.691648959925766</v>
       </c>
       <c r="H10">
-        <v>3.802574538568224</v>
+        <v>3.263856007174356</v>
       </c>
       <c r="I10">
-        <v>4.366971027226723</v>
+        <v>3.802017545773563</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.79976685824683</v>
+        <v>22.30932519262462</v>
       </c>
       <c r="L10">
-        <v>5.608849634074955</v>
+        <v>16.61428460587148</v>
       </c>
       <c r="M10">
-        <v>15.31315795481591</v>
+        <v>16.48222044624989</v>
       </c>
       <c r="N10">
-        <v>6.864026809718375</v>
+        <v>5.68641063150749</v>
       </c>
       <c r="O10">
-        <v>12.32267962209536</v>
+        <v>14.51205403739001</v>
       </c>
       <c r="P10">
-        <v>16.54084273422965</v>
+        <v>7.275402887878616</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.9057909385623</v>
+      </c>
+      <c r="R10">
+        <v>15.10995390069568</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.04842272812707</v>
+        <v>16.56560818280736</v>
       </c>
       <c r="C11">
-        <v>9.801581002294162</v>
+        <v>10.02644900151124</v>
       </c>
       <c r="D11">
-        <v>2.196017546143147</v>
+        <v>3.263522775647302</v>
       </c>
       <c r="E11">
-        <v>5.247806472471201</v>
+        <v>5.846956590835166</v>
       </c>
       <c r="F11">
-        <v>36.73237598088826</v>
+        <v>31.54607441082926</v>
       </c>
       <c r="G11">
-        <v>2.139099107167623</v>
+        <v>11.83490922973529</v>
       </c>
       <c r="H11">
-        <v>4.337218602375954</v>
+        <v>3.909880743380459</v>
       </c>
       <c r="I11">
-        <v>4.298747242118105</v>
+        <v>3.776696616380573</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.85050683087991</v>
+        <v>21.00179667929888</v>
       </c>
       <c r="L11">
-        <v>5.569577609235564</v>
+        <v>15.52610686581575</v>
       </c>
       <c r="M11">
-        <v>15.43434845412787</v>
+        <v>15.60201757904726</v>
       </c>
       <c r="N11">
-        <v>6.425159022849837</v>
+        <v>5.662928990229823</v>
       </c>
       <c r="O11">
-        <v>12.00072958593676</v>
+        <v>14.40266071809572</v>
       </c>
       <c r="P11">
-        <v>16.07046240022398</v>
+        <v>6.794810630671859</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.51612497792238</v>
+      </c>
+      <c r="R11">
+        <v>14.62071427092759</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.8726045617893</v>
+        <v>16.36588785296173</v>
       </c>
       <c r="C12">
-        <v>9.892708341900565</v>
+        <v>9.881768051157804</v>
       </c>
       <c r="D12">
-        <v>2.123666328217946</v>
+        <v>3.285643724447018</v>
       </c>
       <c r="E12">
-        <v>5.169047323255758</v>
+        <v>5.738266042270908</v>
       </c>
       <c r="F12">
-        <v>35.38488097021533</v>
+        <v>29.9803756419657</v>
       </c>
       <c r="G12">
-        <v>2.138796356943151</v>
+        <v>13.2091886999324</v>
       </c>
       <c r="H12">
-        <v>5.338502904443536</v>
+        <v>5.000899938543311</v>
       </c>
       <c r="I12">
-        <v>4.292789214403618</v>
+        <v>3.779368446554569</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.00744984072374</v>
+        <v>20.09753773920213</v>
       </c>
       <c r="L12">
-        <v>5.571661467035059</v>
+        <v>14.82029635415727</v>
       </c>
       <c r="M12">
-        <v>15.33779799957372</v>
+        <v>14.94496276186822</v>
       </c>
       <c r="N12">
-        <v>6.032593751781557</v>
+        <v>5.683873810216785</v>
       </c>
       <c r="O12">
-        <v>11.61610929504407</v>
+        <v>14.20773206501509</v>
       </c>
       <c r="P12">
-        <v>15.74566053411471</v>
+        <v>6.374652711473138</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.10613719025944</v>
+      </c>
+      <c r="R12">
+        <v>14.36559153286055</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46801973462515</v>
+        <v>16.04656405839598</v>
       </c>
       <c r="C13">
-        <v>9.822727352336926</v>
+        <v>9.803007810086141</v>
       </c>
       <c r="D13">
-        <v>2.057075301869417</v>
+        <v>3.167889506796537</v>
       </c>
       <c r="E13">
-        <v>5.160694032185932</v>
+        <v>5.687199941311818</v>
       </c>
       <c r="F13">
-        <v>33.91283708875618</v>
+        <v>28.79896718932797</v>
       </c>
       <c r="G13">
-        <v>2.140041049776662</v>
+        <v>12.98182021347746</v>
       </c>
       <c r="H13">
-        <v>6.53829808357058</v>
+        <v>6.251165010055431</v>
       </c>
       <c r="I13">
-        <v>4.346695597284849</v>
+        <v>3.816331463564487</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.14514950317303</v>
+        <v>19.4744898480111</v>
       </c>
       <c r="L13">
-        <v>5.601506125739483</v>
+        <v>14.36613882552997</v>
       </c>
       <c r="M13">
-        <v>15.0554569401727</v>
+        <v>14.4530450090504</v>
       </c>
       <c r="N13">
-        <v>5.658919126014456</v>
+        <v>5.737035274687091</v>
       </c>
       <c r="O13">
-        <v>11.14820314816736</v>
+        <v>13.97359477080587</v>
       </c>
       <c r="P13">
-        <v>15.49901355268509</v>
+        <v>5.98493752969925</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.65772736309039</v>
+      </c>
+      <c r="R13">
+        <v>14.25325251063649</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.07117138360983</v>
+        <v>15.75833024857267</v>
       </c>
       <c r="C14">
-        <v>9.703871010074128</v>
+        <v>9.776579616651297</v>
       </c>
       <c r="D14">
-        <v>2.015218540875073</v>
+        <v>3.028419356969381</v>
       </c>
       <c r="E14">
-        <v>5.200506822659199</v>
+        <v>5.705173158912418</v>
       </c>
       <c r="F14">
-        <v>32.81321453578004</v>
+        <v>28.11451994115103</v>
       </c>
       <c r="G14">
-        <v>2.141615489932486</v>
+        <v>12.15215253428077</v>
       </c>
       <c r="H14">
-        <v>7.444497104812474</v>
+        <v>7.177980400316438</v>
       </c>
       <c r="I14">
-        <v>4.413681806423873</v>
+        <v>3.860966015229493</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.52794734944914</v>
+        <v>19.14432101096574</v>
       </c>
       <c r="L14">
-        <v>5.640607384289438</v>
+        <v>14.14092438639358</v>
       </c>
       <c r="M14">
-        <v>14.76845216252143</v>
+        <v>14.17157748182077</v>
       </c>
       <c r="N14">
-        <v>5.41432329530033</v>
+        <v>5.793532971879565</v>
       </c>
       <c r="O14">
-        <v>10.77909044756654</v>
+        <v>13.78478422438182</v>
       </c>
       <c r="P14">
-        <v>15.36424828586854</v>
+        <v>5.733214877626807</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.32090408417209</v>
+      </c>
+      <c r="R14">
+        <v>14.2265421036394</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.91851137421146</v>
+        <v>15.65314325169629</v>
       </c>
       <c r="C15">
-        <v>9.645309340204888</v>
+        <v>9.782899044229556</v>
       </c>
       <c r="D15">
-        <v>2.007408382466772</v>
+        <v>2.972359844439936</v>
       </c>
       <c r="E15">
-        <v>5.210174036790346</v>
+        <v>5.716494497647936</v>
       </c>
       <c r="F15">
-        <v>32.5067537292236</v>
+        <v>27.99850949839279</v>
       </c>
       <c r="G15">
-        <v>2.14235561141477</v>
+        <v>11.70087137804054</v>
       </c>
       <c r="H15">
-        <v>7.664813326230383</v>
+        <v>7.398948739424801</v>
       </c>
       <c r="I15">
-        <v>4.446824204444146</v>
+        <v>3.884202570007465</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.36409013131152</v>
+        <v>19.10076330512261</v>
       </c>
       <c r="L15">
-        <v>5.648844147903703</v>
+        <v>14.11919015708129</v>
       </c>
       <c r="M15">
-        <v>14.65612845695191</v>
+        <v>14.1235170629953</v>
       </c>
       <c r="N15">
-        <v>5.357080746785218</v>
+        <v>5.807304286116338</v>
       </c>
       <c r="O15">
-        <v>10.67051562928856</v>
+        <v>13.72381822747018</v>
       </c>
       <c r="P15">
-        <v>15.34292973902157</v>
+        <v>5.676093059948306</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.22807206064787</v>
+      </c>
+      <c r="R15">
+        <v>14.23786597171564</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.45231937714226</v>
+        <v>15.35814326738002</v>
       </c>
       <c r="C16">
-        <v>9.318752451245176</v>
+        <v>9.810715196683198</v>
       </c>
       <c r="D16">
-        <v>2.015906626795149</v>
+        <v>2.775458087597101</v>
       </c>
       <c r="E16">
-        <v>5.131510238619325</v>
+        <v>5.696113311597438</v>
       </c>
       <c r="F16">
-        <v>32.29943356839053</v>
+        <v>28.52825712912266</v>
       </c>
       <c r="G16">
-        <v>2.14572055657303</v>
+        <v>10.06730921200818</v>
       </c>
       <c r="H16">
-        <v>7.543540035430358</v>
+        <v>7.23798677104828</v>
       </c>
       <c r="I16">
-        <v>4.582234396105918</v>
+        <v>3.972405459374003</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.33401178621982</v>
+        <v>19.48667846572027</v>
       </c>
       <c r="L16">
-        <v>5.597921056532607</v>
+        <v>14.46829877677005</v>
       </c>
       <c r="M16">
-        <v>14.28219267742526</v>
+        <v>14.3417037643533</v>
       </c>
       <c r="N16">
-        <v>5.351255986797715</v>
+        <v>5.770315035466221</v>
       </c>
       <c r="O16">
-        <v>10.52071199790961</v>
+        <v>13.57357007297734</v>
       </c>
       <c r="P16">
-        <v>15.45850638650357</v>
+        <v>5.687903915429328</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.14307332385973</v>
+      </c>
+      <c r="R16">
+        <v>14.41149157098651</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.30903902935755</v>
+        <v>15.2660101315383</v>
       </c>
       <c r="C17">
-        <v>9.130426541280007</v>
+        <v>9.795004780138186</v>
       </c>
       <c r="D17">
-        <v>2.044330475649133</v>
+        <v>2.720601179721146</v>
       </c>
       <c r="E17">
-        <v>5.039364758985295</v>
+        <v>5.64329771187028</v>
       </c>
       <c r="F17">
-        <v>32.73200222820138</v>
+        <v>29.222426311787</v>
       </c>
       <c r="G17">
-        <v>2.147474714927983</v>
+        <v>9.745560089378543</v>
       </c>
       <c r="H17">
-        <v>6.951906510742778</v>
+        <v>6.599113510336882</v>
       </c>
       <c r="I17">
-        <v>4.651309408672271</v>
+        <v>4.019098220493704</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.63852593607269</v>
+        <v>19.91975404139559</v>
       </c>
       <c r="L17">
-        <v>5.53364971578821</v>
+        <v>14.83796297026226</v>
       </c>
       <c r="M17">
-        <v>14.1503357296792</v>
+        <v>14.62167974242895</v>
       </c>
       <c r="N17">
-        <v>5.473518867006801</v>
+        <v>5.707169486226106</v>
       </c>
       <c r="O17">
-        <v>10.6061231814392</v>
+        <v>13.52832610354391</v>
       </c>
       <c r="P17">
-        <v>15.61595805281536</v>
+        <v>5.826622421843002</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.25300813444802</v>
+      </c>
+      <c r="R17">
+        <v>14.56485500526033</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44575441636813</v>
+        <v>15.38561106361852</v>
       </c>
       <c r="C18">
-        <v>9.031276691060668</v>
+        <v>9.801205628859456</v>
       </c>
       <c r="D18">
-        <v>2.092234112847106</v>
+        <v>2.737882345463203</v>
       </c>
       <c r="E18">
-        <v>4.980407445357538</v>
+        <v>5.605361959849162</v>
       </c>
       <c r="F18">
-        <v>33.79738019995081</v>
+        <v>30.31045776931705</v>
       </c>
       <c r="G18">
-        <v>2.147950424390736</v>
+        <v>9.657748160362805</v>
       </c>
       <c r="H18">
-        <v>5.956241475742265</v>
+        <v>5.534820669583454</v>
       </c>
       <c r="I18">
-        <v>4.660577142512509</v>
+        <v>4.020640843544853</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.29494888687692</v>
+        <v>20.54910450523691</v>
       </c>
       <c r="L18">
-        <v>5.476119468702768</v>
+        <v>15.3481698934854</v>
       </c>
       <c r="M18">
-        <v>14.21924307594379</v>
+        <v>15.06438121590975</v>
       </c>
       <c r="N18">
-        <v>5.738436277916509</v>
+        <v>5.638885273354131</v>
       </c>
       <c r="O18">
-        <v>10.90656257319446</v>
+        <v>13.62074548611069</v>
       </c>
       <c r="P18">
-        <v>15.8472942530095</v>
+        <v>6.111191288882021</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.55950952678813</v>
+      </c>
+      <c r="R18">
+        <v>14.74799921926</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.76296147700309</v>
+        <v>15.64700542409626</v>
       </c>
       <c r="C19">
-        <v>9.037207081276726</v>
+        <v>9.879026217982597</v>
       </c>
       <c r="D19">
-        <v>2.16281540591971</v>
+        <v>2.807575863100511</v>
       </c>
       <c r="E19">
-        <v>5.03477412547478</v>
+        <v>5.658146784939467</v>
       </c>
       <c r="F19">
-        <v>35.22730401050096</v>
+        <v>31.62824183384885</v>
       </c>
       <c r="G19">
-        <v>2.14734085664867</v>
+        <v>9.557055719914279</v>
       </c>
       <c r="H19">
-        <v>4.884035474136474</v>
+        <v>4.374092528287517</v>
       </c>
       <c r="I19">
-        <v>4.633253020150656</v>
+        <v>4.000810782687911</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.14698788839737</v>
+        <v>21.28476808921378</v>
       </c>
       <c r="L19">
-        <v>5.466134898696179</v>
+        <v>15.92846396133415</v>
       </c>
       <c r="M19">
-        <v>14.42975341390894</v>
+        <v>15.60121633843609</v>
       </c>
       <c r="N19">
-        <v>6.128601579183736</v>
+        <v>5.607039188721879</v>
       </c>
       <c r="O19">
-        <v>11.34869303598619</v>
+        <v>13.8223531173879</v>
       </c>
       <c r="P19">
-        <v>16.12740659734544</v>
+        <v>6.522416504732775</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.99769331081022</v>
+      </c>
+      <c r="R19">
+        <v>14.95282106611777</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.61157946627231</v>
+        <v>16.34008978937902</v>
       </c>
       <c r="C20">
-        <v>9.290552339489141</v>
+        <v>10.12414920270679</v>
       </c>
       <c r="D20">
-        <v>2.280417643175936</v>
+        <v>3.003873340083636</v>
       </c>
       <c r="E20">
-        <v>5.375894953440647</v>
+        <v>5.963572739194556</v>
       </c>
       <c r="F20">
-        <v>37.71975486102586</v>
+        <v>33.63724343848571</v>
       </c>
       <c r="G20">
-        <v>2.143656385879624</v>
+        <v>9.351855022409723</v>
       </c>
       <c r="H20">
-        <v>3.907439711311127</v>
+        <v>3.338703049710306</v>
       </c>
       <c r="I20">
-        <v>4.477781600998476</v>
+        <v>3.888186928934603</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.59322197699311</v>
+        <v>22.35613286116131</v>
       </c>
       <c r="L20">
-        <v>5.579744802339101</v>
+        <v>16.71021395443224</v>
       </c>
       <c r="M20">
-        <v>15.03951165297397</v>
+        <v>16.45134206744628</v>
       </c>
       <c r="N20">
-        <v>6.822953774617348</v>
+        <v>5.66920410589388</v>
       </c>
       <c r="O20">
-        <v>12.1704023407369</v>
+        <v>14.34215780813099</v>
       </c>
       <c r="P20">
-        <v>16.5508600031388</v>
+        <v>7.241513575086367</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.78728834441375</v>
+      </c>
+      <c r="R20">
+        <v>15.20112263917985</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.61025226352095</v>
+        <v>16.96174932374355</v>
       </c>
       <c r="C21">
-        <v>9.910020388757211</v>
+        <v>10.03561560184473</v>
       </c>
       <c r="D21">
-        <v>2.309408219654304</v>
+        <v>3.490524683013108</v>
       </c>
       <c r="E21">
-        <v>5.565553941779011</v>
+        <v>6.200226805949655</v>
       </c>
       <c r="F21">
-        <v>38.86502350638132</v>
+        <v>33.04863497502304</v>
       </c>
       <c r="G21">
-        <v>2.137025124775207</v>
+        <v>12.90559397761252</v>
       </c>
       <c r="H21">
-        <v>3.577384335683914</v>
+        <v>3.108265908887759</v>
       </c>
       <c r="I21">
-        <v>4.212682991098837</v>
+        <v>3.724545074584217</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.12844188846243</v>
+        <v>21.81520731469582</v>
       </c>
       <c r="L21">
-        <v>5.673239990421876</v>
+        <v>16.13085195514013</v>
       </c>
       <c r="M21">
-        <v>15.82852697035743</v>
+        <v>16.23341791133242</v>
       </c>
       <c r="N21">
-        <v>7.055855652746159</v>
+        <v>5.719218995172426</v>
       </c>
       <c r="O21">
-        <v>12.67202951145248</v>
+        <v>14.66059309965534</v>
       </c>
       <c r="P21">
-        <v>16.50286598278106</v>
+        <v>7.441853135583093</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12.13864950624329</v>
+      </c>
+      <c r="R21">
+        <v>14.81961050015036</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.23118223838797</v>
+        <v>17.32888449502785</v>
       </c>
       <c r="C22">
-        <v>10.28513223913308</v>
+        <v>9.930277990242894</v>
       </c>
       <c r="D22">
-        <v>2.317995615355478</v>
+        <v>3.824948278402015</v>
       </c>
       <c r="E22">
-        <v>5.669125317697898</v>
+        <v>6.35326679269945</v>
       </c>
       <c r="F22">
-        <v>39.54802183490812</v>
+        <v>32.53144977507377</v>
       </c>
       <c r="G22">
-        <v>2.132817718121693</v>
+        <v>16.85319418059836</v>
       </c>
       <c r="H22">
-        <v>3.37631173299263</v>
+        <v>2.970392575680645</v>
       </c>
       <c r="I22">
-        <v>4.036948462617749</v>
+        <v>3.61052697789873</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.44878297262635</v>
+        <v>21.39386868483933</v>
       </c>
       <c r="L22">
-        <v>5.727727475458523</v>
+        <v>15.71484116073676</v>
       </c>
       <c r="M22">
-        <v>16.31783595837626</v>
+        <v>16.03461110256044</v>
       </c>
       <c r="N22">
-        <v>7.170645309107175</v>
+        <v>5.748307882194308</v>
       </c>
       <c r="O22">
-        <v>12.96440034860872</v>
+        <v>14.82427521949737</v>
       </c>
       <c r="P22">
-        <v>16.46135770266593</v>
+        <v>7.532571056712155</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.32557534734323</v>
+      </c>
+      <c r="R22">
+        <v>14.56188280098089</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.91963597896682</v>
+        <v>17.18610999281732</v>
       </c>
       <c r="C23">
-        <v>10.07167363045533</v>
+        <v>10.05543715631606</v>
       </c>
       <c r="D23">
-        <v>2.308311589835923</v>
+        <v>3.594232966960013</v>
       </c>
       <c r="E23">
-        <v>5.614687431007566</v>
+        <v>6.257931893032964</v>
       </c>
       <c r="F23">
-        <v>39.22818055686646</v>
+        <v>33.02177257060532</v>
       </c>
       <c r="G23">
-        <v>2.13502261387967</v>
+        <v>13.99055282135628</v>
       </c>
       <c r="H23">
-        <v>3.481659938194613</v>
+        <v>3.038568443153592</v>
       </c>
       <c r="I23">
-        <v>4.120723634080847</v>
+        <v>3.655805562602895</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.31203876866018</v>
+        <v>21.7505440772095</v>
       </c>
       <c r="L23">
-        <v>5.700173014933094</v>
+        <v>16.03320501931307</v>
       </c>
       <c r="M23">
-        <v>16.06480494995917</v>
+        <v>16.24290146353728</v>
       </c>
       <c r="N23">
-        <v>7.106028188430417</v>
+        <v>5.735356139674203</v>
       </c>
       <c r="O23">
-        <v>12.812983315205</v>
+        <v>14.79671489873073</v>
       </c>
       <c r="P23">
-        <v>16.4952385564217</v>
+        <v>7.485372594467971</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.24620668147381</v>
+      </c>
+      <c r="R23">
+        <v>14.73520381338547</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.66462521243989</v>
+        <v>16.38860714094805</v>
       </c>
       <c r="C24">
-        <v>9.261258018425336</v>
+        <v>10.10789699584401</v>
       </c>
       <c r="D24">
-        <v>2.280987192432693</v>
+        <v>2.997575974939734</v>
       </c>
       <c r="E24">
-        <v>5.404292232667209</v>
+        <v>5.989052390724465</v>
       </c>
       <c r="F24">
-        <v>37.93718508368809</v>
+        <v>33.8492792088046</v>
       </c>
       <c r="G24">
-        <v>2.143573251886683</v>
+        <v>9.32435433305613</v>
       </c>
       <c r="H24">
-        <v>3.890796519149091</v>
+        <v>3.322004215049182</v>
       </c>
       <c r="I24">
-        <v>4.460911660592175</v>
+        <v>3.868213049308643</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.73885993873407</v>
+        <v>22.49119497938606</v>
       </c>
       <c r="L24">
-        <v>5.591457004670794</v>
+        <v>16.81748950568423</v>
       </c>
       <c r="M24">
-        <v>15.06506133715888</v>
+        <v>16.5489041659441</v>
       </c>
       <c r="N24">
-        <v>6.863632125844209</v>
+        <v>5.677452051687938</v>
       </c>
       <c r="O24">
-        <v>12.21959553186972</v>
+        <v>14.369384998612</v>
       </c>
       <c r="P24">
-        <v>16.60615497901334</v>
+        <v>7.284729252630656</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.83660206529002</v>
+      </c>
+      <c r="R24">
+        <v>15.24551668964642</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.21270427347352</v>
+        <v>15.04325010991078</v>
       </c>
       <c r="C25">
-        <v>8.333084331643274</v>
+        <v>9.163293056207147</v>
       </c>
       <c r="D25">
-        <v>2.253424995359492</v>
+        <v>2.830341500050732</v>
       </c>
       <c r="E25">
-        <v>5.170283489375663</v>
+        <v>5.824247679582903</v>
       </c>
       <c r="F25">
-        <v>36.53179167524447</v>
+        <v>32.78801289422663</v>
       </c>
       <c r="G25">
-        <v>2.153129892712884</v>
+        <v>10.30754074422767</v>
       </c>
       <c r="H25">
-        <v>4.349255909306659</v>
+        <v>3.695024437047736</v>
       </c>
       <c r="I25">
-        <v>4.843901390398855</v>
+        <v>4.160964181250655</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.12245105457601</v>
+        <v>22.13798115237909</v>
       </c>
       <c r="L25">
-        <v>5.469529734501934</v>
+        <v>16.7959196827182</v>
       </c>
       <c r="M25">
-        <v>13.92367472948919</v>
+        <v>16.02968624186042</v>
       </c>
       <c r="N25">
-        <v>6.595709956562187</v>
+        <v>5.590442283189151</v>
       </c>
       <c r="O25">
-        <v>11.5530522021664</v>
+        <v>13.25466786260177</v>
       </c>
       <c r="P25">
-        <v>16.729787926573</v>
+        <v>7.012547970251635</v>
       </c>
       <c r="Q25">
+        <v>11.18878247395227</v>
+      </c>
+      <c r="R25">
+        <v>15.44318247714287</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
